--- a/com.shrcn.found.ui/src/com/shrcn/business/ui/common.xlsx
+++ b/com.shrcn.found.ui/src/com/shrcn/business/ui/common.xlsx
@@ -46,10 +46,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -60,7 +60,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -73,7 +72,6 @@
       <b/>
       <sz val="20"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -97,12 +95,105 @@
     <font>
       <sz val="12"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -115,110 +206,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -250,85 +247,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,91 +421,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,6 +468,48 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -487,6 +526,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -501,48 +564,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -553,30 +574,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -585,10 +582,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -597,133 +594,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -1096,72 +1093,71 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:C9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.75" style="2" customWidth="1"/>
-    <col min="4" max="16" width="19.625" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="8" style="2"/>
+    <col min="1" max="1" width="12.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.75" style="2" customWidth="1"/>
+    <col min="3" max="15" width="19.625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="8" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="1:2">
+      <c r="A1" s="3"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
     </row>
-    <row r="2" ht="26.25" spans="2:3">
-      <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+    <row r="2" ht="26.25" spans="1:2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="13.5" spans="2:3">
-      <c r="B4" s="8" t="s">
+    <row r="4" spans="1:2">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="13.5" spans="2:3">
+    <row r="5" s="1" customFormat="1" ht="13.5" spans="1:2">
+      <c r="A5" s="10"/>
       <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
     </row>
-    <row r="6" ht="28.5" spans="2:2">
-      <c r="B6" s="11" t="s">
+    <row r="6" ht="28.5" spans="1:1">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="2:2">
-      <c r="B8" s="12" t="s">
+    <row r="8" ht="15" spans="1:1">
+      <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="2" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
